--- a/biology/Zoologie/Eurema_brigitta/Eurema_brigitta.xlsx
+++ b/biology/Zoologie/Eurema_brigitta/Eurema_brigitta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurema brigitta ou Bordure noire de Cramer[1] est un insecte lépidoptère de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Eurema.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema brigitta ou Bordure noire de Cramer est un insecte lépidoptère de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Eurema.
 </t>
         </is>
       </c>
@@ -511,14 +523,86 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Eurema brigitta a été nommé par Caspar Stoll en  1780.
-Synonymes : Papilio brigitta (Stoll, 1780), Maiva sulphurea Grose-Smith et Kirby, 1893; Eurema libythea[2].
-Noms vernaculaires
-Ce papillon se nomme en anglais Small Grass Yellow ou No band Grass Yellow[2],[3].
-Sous-espèces
-Eurema brigitta brigitta en Afrique tropicale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema brigitta a été nommé par Caspar Stoll en  1780.
+Synonymes : Papilio brigitta (Stoll, 1780), Maiva sulphurea Grose-Smith et Kirby, 1893; Eurema libythea.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eurema_brigitta</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_brigitta</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon se nomme en anglais Small Grass Yellow ou No band Grass Yellow,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eurema_brigitta</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_brigitta</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Eurema brigitta brigitta en Afrique tropicale.
 Eurema brigitta australis (Wallace, 1867) en Australie, Nouvelle-Guinée et Papouasie.
 Eurema brigitta drona (Horsfield, 1829) à Sumatra et Java.
 Eurema brigitta formosana (Matsumura, 1919) à Taïwan.
@@ -528,74 +612,7 @@
 Eurema brigitta pulchella (Boisduval, 1833) à Madagascar, La Réunion, l'ile Maurice, les Comores, et Aldabra.
 Eurema brigitta rubella (Wallace, 1867) à Ceylan, en Inde, en  Birmanie dans le sud de la Chine et à Nicobar.
 Eurema brigitta senna (C. et R. Felder, 1865) en Malaisie et à Singapour
-Eurema brigitta  yunnana (Mell)[2].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Eurema_brigitta</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eurema_brigitta</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une petite espèce de 4 à 5 cm d'envergure. Le mâle et la femelle sont d'une couleur jaune plus ou moins intense sur les deux faces avec une bordure épaisse marron foncé à noir sur le dessus assez large à l'apex des antérieures. Il existe un dimorphisme sexuel, cette bordure est plus étroite, surtout aux postérieures chez la femelle.
-Le dessous est jaune avec de petits points marron chez la femelle. Le mâle présente un dimorphisme lié à la saison, il est jaune uni durant la saison humide et jaune avec quelques points marron durant la saison sèche[4].
-Chenille
-La chenille est verte ornée de bandes vert foncé et d'une ligne jaune pâle[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Eurema_brigitta</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eurema_brigitta</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vole toute l'année.
-Plantes hôtes
-Ses plantes hôtes sont Cassia mimosoides, Chamaecrista nomame, Neptunia dimorphanthaet et Hypericum aethiopicum[2],[4].
-</t>
+Eurema brigitta  yunnana (Mell).</t>
         </is>
       </c>
     </row>
@@ -620,18 +637,266 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une petite espèce de 4 à 5 cm d'envergure. Le mâle et la femelle sont d'une couleur jaune plus ou moins intense sur les deux faces avec une bordure épaisse marron foncé à noir sur le dessus assez large à l'apex des antérieures. Il existe un dimorphisme sexuel, cette bordure est plus étroite, surtout aux postérieures chez la femelle.
+Le dessous est jaune avec de petits points marron chez la femelle. Le mâle présente un dimorphisme lié à la saison, il est jaune uni durant la saison humide et jaune avec quelques points marron durant la saison sèche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eurema_brigitta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_brigitta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est verte ornée de bandes vert foncé et d'une ligne jaune pâle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eurema_brigitta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_brigitta</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole toute l'année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eurema_brigitta</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_brigitta</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont Cassia mimosoides, Chamaecrista nomame, Neptunia dimorphanthaet et Hypericum aethiopicum,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eurema_brigitta</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_brigitta</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans la moitié sud de l'Afrique, à Madagascar, à l'ile Maurice, dans le sud de l'Asie, en Australie et en Nouvelle-Calédonie[2].
-Biotope
-Il réside dans les plaines, les prairies et les bois[4].
-Protection
-Pas de statut de protection particulier.
-Philatélie
-Il figure sur un timbre du Lesotho de 1984[5].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans la moitié sud de l'Afrique, à Madagascar, à l'ile Maurice, dans le sud de l'Asie, en Australie et en Nouvelle-Calédonie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eurema_brigitta</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_brigitta</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les plaines, les prairies et les bois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Eurema_brigitta</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_brigitta</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Eurema_brigitta</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_brigitta</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Philatélie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il figure sur un timbre du Lesotho de 1984.
 </t>
         </is>
       </c>
